--- a/biology/Botanique/Cytisophyllum_sessilifolium/Cytisophyllum_sessilifolium.xlsx
+++ b/biology/Botanique/Cytisophyllum_sessilifolium/Cytisophyllum_sessilifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cytisophyllum sessilifolium, le cytise à feuilles sessiles, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Europe occidentale. C'est l'unique espèce acceptée du genre Cytisophyllum (genre monotypique).
@@ -513,9 +525,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cytise à feuilles sessiles, cytisophylle à feuilles sessiles[4], genêt d'Italie[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cytise à feuilles sessiles, cytisophylle à feuilles sessiles, genêt d'Italie.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles des rameaux florifères sont sessiles, elles sont directement implantées sur la tige sans pétiole, celles inférieures et des rameaux stériles sont pétiolées. Elles sont glabres, divisées en trois folioles. Les fleurs forment des grappes jaunes.
 </t>
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Floraison : avril à juillet
 Altitude : maximum à 1 200 mètres
@@ -607,7 +625,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cytise à feuilles sessiles affectionne les bois clairs et les coteaux bien exposés (adrets). Il est très fréquent dans la région des Alpes-de-Haute-Provence. On le rencontre dans les régions méditerranéennes en France, en Italie et en Espagne.
 </t>
@@ -638,7 +658,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cytisus sessilifolius L.</t>
         </is>
